--- a/Components/CollazoAlbert_1601_TimeEstimation.xlsx
+++ b/Components/CollazoAlbert_1601_TimeEstimation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlbertCollazo/Collazo_Albert_Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlbertCollazo/Collazo_Albert_Portfolio/Components/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="8940" yWindow="740" windowWidth="18660" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>PAP1</t>
   </si>
@@ -66,13 +66,37 @@
   </si>
   <si>
     <t>Time in Minutes</t>
+  </si>
+  <si>
+    <t>Week 2 Assignments</t>
+  </si>
+  <si>
+    <t>Week 3 Assignments</t>
+  </si>
+  <si>
+    <t>Self Evaluation: SWOT</t>
+  </si>
+  <si>
+    <t>Call to Action- Failure to Success!</t>
+  </si>
+  <si>
+    <t>Mission Statement</t>
+  </si>
+  <si>
+    <t>Communicating with Visual Tools</t>
+  </si>
+  <si>
+    <t>Call to Action-Encouragement!</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +107,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -326,6 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,14 +803,230 @@
       <c r="B13" s="1">
         <v>60</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>80</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15-C15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D21" si="1">B16-C16</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18">
+        <f>B18-C18</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:D21" si="2">B19-C19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f>B23-C23</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D29" si="3">B24-C24</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="18">
+        <f>B26-C26</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27:D29" si="4">B27-C27</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -787,5 +1034,6 @@
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Components/CollazoAlbert_1601_TimeEstimation.xlsx
+++ b/Components/CollazoAlbert_1601_TimeEstimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="740" windowWidth="18660" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="8940" yWindow="780" windowWidth="18660" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>PAP1</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>Week 4 Assignments</t>
+  </si>
+  <si>
+    <t>SWOT</t>
+  </si>
+  <si>
+    <t>Call to Action-Growth</t>
+  </si>
+  <si>
+    <t>Month in Review</t>
+  </si>
+  <si>
+    <t>Being Paid for your work</t>
   </si>
 </sst>
 </file>
@@ -317,6 +332,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,7 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,34 +670,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="15">
         <v>1601</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -699,12 +714,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -812,12 +827,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -845,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D21" si="1">B16-C16</f>
+        <f t="shared" ref="D16:D17" si="1">B16-C16</f>
         <v>15</v>
       </c>
     </row>
@@ -874,7 +889,7 @@
       <c r="C18" s="1">
         <v>15</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="5">
         <f>B18-C18</f>
         <v>15</v>
       </c>
@@ -925,12 +940,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -939,10 +954,12 @@
       <c r="B23" s="1">
         <v>120</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>60</v>
+      </c>
       <c r="D23" s="1">
         <f>B23-C23</f>
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -952,10 +969,12 @@
       <c r="B24" s="1">
         <v>60</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>45</v>
+      </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24:D29" si="3">B24-C24</f>
-        <v>60</v>
+        <f t="shared" ref="D24:D25" si="3">B24-C24</f>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -965,10 +984,12 @@
       <c r="B25" s="1">
         <v>90</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <v>75</v>
+      </c>
       <c r="D25" s="1">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -978,10 +999,12 @@
       <c r="B26" s="1">
         <v>60</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="18">
+      <c r="C26" s="1">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5">
         <f>B26-C26</f>
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,10 +1014,12 @@
       <c r="B27" s="1">
         <v>60</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>45</v>
+      </c>
       <c r="D27" s="1">
         <f t="shared" ref="D27:D29" si="4">B27-C27</f>
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,10 +1029,12 @@
       <c r="B28" s="1">
         <v>120</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>15</v>
+      </c>
       <c r="D28" s="1">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,14 +1044,139 @@
       <c r="B29" s="1">
         <v>60</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>45</v>
+      </c>
       <c r="D29" s="1">
         <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <f>B31-C31</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32:D33" si="5">B32-C32</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1">
+        <v>25</v>
+      </c>
+      <c r="D34" s="5">
+        <f>B34-C34</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35" si="6">B35-C35</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:D38" si="7">B36-C36</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1">
+        <v>60</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A6:D6"/>
